--- a/parsers/nalogy.xlsx
+++ b/parsers/nalogy.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="20490" windowHeight="7095"/>
   </bookViews>
   <sheets>
     <sheet name="шаблон тест" sheetId="14" r:id="rId1"/>
     <sheet name="Нагрузка" sheetId="8" r:id="rId2"/>
     <sheet name="Инфолист" sheetId="11" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="48">
   <si>
     <t>Период</t>
   </si>
@@ -141,12 +141,6 @@
     <t>МЕСЯЦ</t>
   </si>
   <si>
-    <t>Компания 1</t>
-  </si>
-  <si>
-    <t>Компания 2</t>
-  </si>
-  <si>
     <t>Налоги, тыс.тг</t>
   </si>
   <si>
@@ -162,7 +156,10 @@
     <t>Налоговая нагрузка</t>
   </si>
   <si>
-    <t>Тестовые данные к показателю Налоговая нагрузка</t>
+    <t>АО ЭМГ</t>
+  </si>
+  <si>
+    <t>Реальные данные к показателю Налоговая нагрузка</t>
   </si>
 </sst>
 </file>
@@ -213,7 +210,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -240,7 +237,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -284,7 +305,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -332,12 +353,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="164" fontId="3" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="3" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -347,6 +365,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1269,8 +1299,8 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="48"/>
-        <c:axId val="190380320"/>
-        <c:axId val="190523120"/>
+        <c:axId val="39743488"/>
+        <c:axId val="39745024"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1623,11 +1653,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="198806568"/>
-        <c:axId val="192650456"/>
+        <c:axId val="39760640"/>
+        <c:axId val="39746560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="190380320"/>
+        <c:axId val="39743488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1637,7 +1667,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="190523120"/>
+        <c:crossAx val="39745024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1645,7 +1675,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="190523120"/>
+        <c:axId val="39745024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10000"/>
@@ -1656,13 +1686,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="190380320"/>
+        <c:crossAx val="39743488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="192650456"/>
+        <c:axId val="39746560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.2"/>
@@ -1674,13 +1704,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198806568"/>
+        <c:crossAx val="39760640"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="4.0000000000000008E-2"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="198806568"/>
+        <c:axId val="39760640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1690,7 +1720,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="192650456"/>
+        <c:crossAx val="39746560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1945,8 +1975,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="198940392"/>
-        <c:axId val="146540344"/>
+        <c:axId val="41515264"/>
+        <c:axId val="41529344"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2124,11 +2154,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="146541128"/>
-        <c:axId val="146540736"/>
+        <c:axId val="41532416"/>
+        <c:axId val="41530880"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="198940392"/>
+        <c:axId val="41515264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2138,7 +2168,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146540344"/>
+        <c:crossAx val="41529344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2146,7 +2176,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="146540344"/>
+        <c:axId val="41529344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="25000"/>
@@ -2158,13 +2188,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198940392"/>
+        <c:crossAx val="41515264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="146540736"/>
+        <c:axId val="41530880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.8"/>
@@ -2175,13 +2205,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146541128"/>
+        <c:crossAx val="41532416"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="146541128"/>
+        <c:axId val="41532416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2191,7 +2221,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146540736"/>
+        <c:crossAx val="41530880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2391,7 +2421,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2426,7 +2456,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2635,11 +2665,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:I29"/>
+  <dimension ref="B3:I65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2648,7 +2678,8 @@
     <col min="2" max="2" width="11.5703125" style="24" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="9.140625" style="24"/>
     <col min="5" max="5" width="18.85546875" style="24" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="24.28515625" style="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="24.28515625" style="24" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.42578125" style="24" customWidth="1"/>
     <col min="9" max="9" width="23.5703125" style="24" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.85546875" style="24" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="23.7109375" style="24" bestFit="1" customWidth="1"/>
@@ -2657,627 +2688,1493 @@
     <col min="17" max="16384" width="9.140625" style="24"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:9" s="24" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B3" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-    </row>
-    <row r="5" spans="2:9" s="24" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="30" t="s">
+    <row r="3" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B3" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+    </row>
+    <row r="5" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="29" t="s">
+      <c r="H5" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="G5" s="29" t="s">
+      <c r="I5" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="H5" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="I5" s="29" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="28">
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="30">
+        <v>2016</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="6">
+        <v>2957075.2359000002</v>
+      </c>
+      <c r="F6" s="31">
+        <v>2957075235.9000001</v>
+      </c>
+      <c r="G6" s="6">
+        <v>24656529.234490003</v>
+      </c>
+      <c r="H6" s="6">
+        <v>24656529234.490002</v>
+      </c>
+      <c r="I6" s="32">
+        <v>0.11993071724643181</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="30">
+        <v>2016</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="6">
+        <v>11827746.971170001</v>
+      </c>
+      <c r="F7" s="31">
+        <v>14784822207.07</v>
+      </c>
+      <c r="G7" s="6">
+        <v>18056451.340229999</v>
+      </c>
+      <c r="H7" s="6">
+        <v>42712980574.720001</v>
+      </c>
+      <c r="I7" s="32">
+        <v>0.34614353782232909</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="30">
+        <v>2016</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="6">
+        <v>2288826.9578099996</v>
+      </c>
+      <c r="F8" s="31">
+        <v>17073649164.879999</v>
+      </c>
+      <c r="G8" s="6">
+        <v>15337699.248580001</v>
+      </c>
+      <c r="H8" s="6">
+        <v>58050679823.300003</v>
+      </c>
+      <c r="I8" s="32">
+        <v>0.29411626559499982</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="30">
+        <v>2016</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="6">
+        <v>3663428.4597699987</v>
+      </c>
+      <c r="F9" s="31">
+        <v>20737077624.649998</v>
+      </c>
+      <c r="G9" s="6">
+        <v>24253308.412860002</v>
+      </c>
+      <c r="H9" s="6">
+        <v>82303988236.160004</v>
+      </c>
+      <c r="I9" s="32">
+        <v>0.25195714167760375</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="30">
+        <v>2016</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="6">
+        <v>5615766.8182000006</v>
+      </c>
+      <c r="F10" s="31">
+        <v>26352844442.849998</v>
+      </c>
+      <c r="G10" s="6">
+        <v>26572644.488270003</v>
+      </c>
+      <c r="H10" s="6">
+        <v>108876632724.43001</v>
+      </c>
+      <c r="I10" s="32">
+        <v>0.2420431619110579</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="30">
+        <v>2016</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="6">
+        <v>917220.00865000149</v>
+      </c>
+      <c r="F11" s="31">
+        <v>27270064451.5</v>
+      </c>
+      <c r="G11" s="6">
+        <v>18986264.743199997</v>
+      </c>
+      <c r="H11" s="6">
+        <v>127862897467.63</v>
+      </c>
+      <c r="I11" s="32">
+        <v>0.21327582114587804</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="30">
+        <v>2016</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="6">
+        <v>2268280.931830002</v>
+      </c>
+      <c r="F12" s="31">
+        <v>29538345383.330002</v>
+      </c>
+      <c r="G12" s="6">
+        <v>34884810.156359985</v>
+      </c>
+      <c r="H12" s="6">
+        <v>162747707623.98999</v>
+      </c>
+      <c r="I12" s="32">
+        <v>0.18149776617176677</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="30">
+        <v>2016</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="6">
+        <v>9141277.8260299992</v>
+      </c>
+      <c r="F13" s="31">
+        <v>38679623209.360001</v>
+      </c>
+      <c r="G13" s="6">
+        <v>9027293.3235199898</v>
+      </c>
+      <c r="H13" s="6">
+        <v>171775000947.50998</v>
+      </c>
+      <c r="I13" s="32">
+        <v>0.22517609079320861</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="30">
+        <v>2016</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="6">
+        <v>2811330.6115100021</v>
+      </c>
+      <c r="F14" s="31">
+        <v>41490953820.870003</v>
+      </c>
+      <c r="G14" s="6">
+        <v>22689455.59028</v>
+      </c>
+      <c r="H14" s="6">
+        <v>194464456537.78998</v>
+      </c>
+      <c r="I14" s="32">
+        <v>0.21336008934263589</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="30">
+        <v>2016</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="6">
+        <v>2356072.0220900038</v>
+      </c>
+      <c r="F15" s="31">
+        <v>43847025842.960007</v>
+      </c>
+      <c r="G15" s="6">
+        <v>26099869.699820008</v>
+      </c>
+      <c r="H15" s="6">
+        <v>220564326237.60999</v>
+      </c>
+      <c r="I15" s="32">
+        <v>0.19879473072959403</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="30">
+        <v>2016</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="32"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="30">
+        <v>2016</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="32"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="33">
         <v>2015</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D18" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="26">
-        <v>2466.42804179</v>
-      </c>
-      <c r="F6" s="26">
-        <v>2466.42804179</v>
-      </c>
-      <c r="G6" s="26">
-        <v>17830.699283590002</v>
-      </c>
-      <c r="H6" s="26">
-        <v>17830.699283590002</v>
-      </c>
-      <c r="I6" s="25">
-        <v>0.13832480726428434</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="28">
+      <c r="E18" s="6">
+        <v>1797987.2582100001</v>
+      </c>
+      <c r="F18" s="34">
+        <v>1797987258.21</v>
+      </c>
+      <c r="G18" s="6">
+        <v>18127649.453619998</v>
+      </c>
+      <c r="H18" s="6">
+        <v>18127649453.619999</v>
+      </c>
+      <c r="I18" s="32">
+        <v>9.9184798493052895E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="33">
         <v>2015</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D19" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="26">
-        <v>3388.6896475900003</v>
-      </c>
-      <c r="F7" s="26">
-        <v>5855.1176893800002</v>
-      </c>
-      <c r="G7" s="26">
-        <v>15649.27742534</v>
-      </c>
-      <c r="H7" s="26">
-        <v>33479.97670893</v>
-      </c>
-      <c r="I7" s="25">
-        <v>0.17488416256329964</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="28">
+      <c r="E19" s="6">
+        <v>22062512.774009999</v>
+      </c>
+      <c r="F19" s="34">
+        <v>23860500032.219997</v>
+      </c>
+      <c r="G19" s="6">
+        <v>9939149.7933299989</v>
+      </c>
+      <c r="H19" s="6">
+        <v>28066799246.949997</v>
+      </c>
+      <c r="I19" s="32">
+        <v>0.85013256489561784</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="33">
         <v>2015</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D20" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="26">
-        <v>2463.8405332800003</v>
-      </c>
-      <c r="F8" s="26">
-        <v>8318.9582226599996</v>
-      </c>
-      <c r="G8" s="26">
-        <v>18444.024583999992</v>
-      </c>
-      <c r="H8" s="26">
-        <v>51924.001292929992</v>
-      </c>
-      <c r="I8" s="25">
-        <v>0.16021412093664505</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="28">
+      <c r="E20" s="6">
+        <v>3397791.2805600013</v>
+      </c>
+      <c r="F20" s="34">
+        <v>27258291312.779999</v>
+      </c>
+      <c r="G20" s="6">
+        <v>20835912.722860001</v>
+      </c>
+      <c r="H20" s="6">
+        <v>48902711969.809998</v>
+      </c>
+      <c r="I20" s="32">
+        <v>0.55739835716284725</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="33">
         <v>2015</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D21" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="26">
-        <v>642.54128170000001</v>
-      </c>
-      <c r="F9" s="26">
-        <v>8961.4995043599993</v>
-      </c>
-      <c r="G9" s="26">
-        <v>17753.115884900009</v>
-      </c>
-      <c r="H9" s="26">
-        <v>69677.117177830005</v>
-      </c>
-      <c r="I9" s="25">
-        <v>0.12861467103308036</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="28">
+      <c r="E21" s="6">
+        <v>8448711.4204999991</v>
+      </c>
+      <c r="F21" s="34">
+        <v>35707002733.279999</v>
+      </c>
+      <c r="G21" s="6">
+        <v>17851183.687300004</v>
+      </c>
+      <c r="H21" s="6">
+        <v>66753895657.110001</v>
+      </c>
+      <c r="I21" s="32">
+        <v>0.53490515245272918</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="33">
         <v>2015</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D22" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="26">
-        <v>1495.7789828699999</v>
-      </c>
-      <c r="F10" s="26">
-        <v>10457.27848723</v>
-      </c>
-      <c r="G10" s="26">
-        <v>18527.537231590013</v>
-      </c>
-      <c r="H10" s="26">
-        <v>88204.654409420022</v>
-      </c>
-      <c r="I10" s="25">
-        <v>0.11855699177381722</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="28">
+      <c r="E22" s="6">
+        <v>10216520.932540001</v>
+      </c>
+      <c r="F22" s="34">
+        <v>45923523665.82</v>
+      </c>
+      <c r="G22" s="6">
+        <v>16627321.275160003</v>
+      </c>
+      <c r="H22" s="6">
+        <v>83381216932.270004</v>
+      </c>
+      <c r="I22" s="32">
+        <v>0.55076581219872778</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="33">
         <v>2015</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D23" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="26">
-        <v>527.99275741000008</v>
-      </c>
-      <c r="F11" s="26">
-        <v>10985.27124464</v>
-      </c>
-      <c r="G11" s="26">
-        <v>18404.194989499985</v>
-      </c>
-      <c r="H11" s="26">
-        <v>106608.84939892001</v>
-      </c>
-      <c r="I11" s="25">
-        <v>0.10304277090107386</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="28">
+      <c r="E23" s="6">
+        <v>1223866.7704499969</v>
+      </c>
+      <c r="F23" s="34">
+        <v>47147390436.269997</v>
+      </c>
+      <c r="G23" s="6">
+        <v>18008834.596830003</v>
+      </c>
+      <c r="H23" s="6">
+        <v>101390051529.10001</v>
+      </c>
+      <c r="I23" s="32">
+        <v>0.46501002539423902</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="33">
         <v>2015</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="D24" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="26">
-        <v>524.72376731999998</v>
-      </c>
-      <c r="F12" s="26">
-        <v>11509.99501196</v>
-      </c>
-      <c r="G12" s="26">
-        <v>16373.011957050003</v>
-      </c>
-      <c r="H12" s="26">
-        <v>122981.86135597</v>
-      </c>
-      <c r="I12" s="25">
-        <v>9.3590996957221298E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="28">
+      <c r="E24" s="6">
+        <v>1253543.8807699967</v>
+      </c>
+      <c r="F24" s="34">
+        <v>48400934317.039993</v>
+      </c>
+      <c r="G24" s="6">
+        <v>23290804.925779998</v>
+      </c>
+      <c r="H24" s="6">
+        <v>124680856454.88</v>
+      </c>
+      <c r="I24" s="32">
+        <v>0.38819860316371435</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="33">
         <v>2015</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="D25" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="26">
-        <v>2028.3212736600001</v>
-      </c>
-      <c r="F13" s="26">
-        <v>13538.31628562</v>
-      </c>
-      <c r="G13" s="26">
-        <v>24941.80460626999</v>
-      </c>
-      <c r="H13" s="26">
-        <v>147923.66596223999</v>
-      </c>
-      <c r="I13" s="25">
-        <v>9.1522314550234865E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="28">
+      <c r="E25" s="6">
+        <v>1329102.8025500032</v>
+      </c>
+      <c r="F25" s="34">
+        <v>49730037119.589996</v>
+      </c>
+      <c r="G25" s="6">
+        <v>38686119.343309999</v>
+      </c>
+      <c r="H25" s="6">
+        <v>163366975798.19</v>
+      </c>
+      <c r="I25" s="32">
+        <v>0.30440691502438261</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="33">
         <v>2015</v>
       </c>
-      <c r="D14" s="27" t="s">
+      <c r="D26" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="26">
-        <v>1764.3070405000001</v>
-      </c>
-      <c r="F14" s="26">
-        <v>15302.62332612</v>
-      </c>
-      <c r="G14" s="26">
-        <v>21983.555602619996</v>
-      </c>
-      <c r="H14" s="26">
-        <v>169907.22156486</v>
-      </c>
-      <c r="I14" s="25">
-        <v>9.0064584572577516E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="28">
+      <c r="E26" s="6">
+        <v>3780415.9049799959</v>
+      </c>
+      <c r="F26" s="34">
+        <v>53510453024.569992</v>
+      </c>
+      <c r="G26" s="6">
+        <v>27180837.403859984</v>
+      </c>
+      <c r="H26" s="6">
+        <v>190547813202.04999</v>
+      </c>
+      <c r="I26" s="32">
+        <v>0.28082428302564383</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="33">
         <v>2015</v>
       </c>
-      <c r="D15" s="27" t="s">
+      <c r="D27" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="26">
-        <v>1498.7261884500001</v>
-      </c>
-      <c r="F15" s="26">
-        <v>16801.34951457</v>
-      </c>
-      <c r="G15" s="26">
-        <v>18883.948420669982</v>
-      </c>
-      <c r="H15" s="26">
-        <v>188791.16998552997</v>
-      </c>
-      <c r="I15" s="25">
-        <v>8.8994360890171667E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="28">
+      <c r="E27" s="6">
+        <v>1053288.2784000016</v>
+      </c>
+      <c r="F27" s="34">
+        <v>54563741302.969994</v>
+      </c>
+      <c r="G27" s="6">
+        <v>24819276.216390014</v>
+      </c>
+      <c r="H27" s="6">
+        <v>215367089418.44</v>
+      </c>
+      <c r="I27" s="32">
+        <v>0.25335227146501138</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="33">
         <v>2015</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="D28" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="26">
-        <v>3950.5685661900002</v>
-      </c>
-      <c r="F16" s="26">
-        <v>20751.918080759999</v>
-      </c>
-      <c r="G16" s="26">
-        <v>21786.564652600038</v>
-      </c>
-      <c r="H16" s="26">
-        <v>210577.73463813</v>
-      </c>
-      <c r="I16" s="25">
-        <v>9.8547541678237718E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="28">
+      <c r="E28" s="6">
+        <v>11830779.279919999</v>
+      </c>
+      <c r="F28" s="34">
+        <v>66394520582.889992</v>
+      </c>
+      <c r="G28" s="6">
+        <v>20554964.201499999</v>
+      </c>
+      <c r="H28" s="6">
+        <v>235922053619.94</v>
+      </c>
+      <c r="I28" s="32">
+        <v>0.28142566396038848</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="33">
         <v>2015</v>
       </c>
-      <c r="D17" s="27" t="s">
+      <c r="D29" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="26">
-        <v>8872.4795507099989</v>
-      </c>
-      <c r="F17" s="26">
-        <v>29624.397631469998</v>
-      </c>
-      <c r="G17" s="26">
-        <v>22572.196158390016</v>
-      </c>
-      <c r="H17" s="26">
-        <v>233149.93079652003</v>
-      </c>
-      <c r="I17" s="25">
-        <v>0.12706157591496128</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="28">
-        <v>2016</v>
-      </c>
-      <c r="D18" s="27" t="s">
+      <c r="E29" s="6">
+        <v>829317.94719000242</v>
+      </c>
+      <c r="F29" s="34">
+        <v>67223838530.079994</v>
+      </c>
+      <c r="G29" s="6">
+        <v>38025012.321040012</v>
+      </c>
+      <c r="H29" s="6">
+        <v>273947065940.98001</v>
+      </c>
+      <c r="I29" s="32">
+        <v>0.24538988325782216</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="35">
+        <v>2014</v>
+      </c>
+      <c r="D30" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="26">
-        <v>2873.9645882</v>
-      </c>
-      <c r="F18" s="26">
-        <v>2873.9645882</v>
-      </c>
-      <c r="G18" s="26">
-        <v>21753.765619559999</v>
-      </c>
-      <c r="H18" s="26">
-        <v>21753.765619559999</v>
-      </c>
-      <c r="I18" s="25">
-        <v>0.13211342985215679</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="28">
-        <v>2016</v>
-      </c>
-      <c r="D19" s="27" t="s">
+      <c r="E30" s="6">
+        <v>3161590.2662199996</v>
+      </c>
+      <c r="F30" s="36">
+        <v>3161590266.2199998</v>
+      </c>
+      <c r="G30" s="6">
+        <v>31741712.327119999</v>
+      </c>
+      <c r="H30" s="6">
+        <v>31741712327.119999</v>
+      </c>
+      <c r="I30" s="32">
+        <v>9.9603645626853879E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" s="35">
+        <v>2014</v>
+      </c>
+      <c r="D31" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="26">
-        <v>3601.74701547</v>
-      </c>
-      <c r="F19" s="26">
-        <v>6475.7116036699999</v>
-      </c>
-      <c r="G19" s="26">
-        <v>16220.596138220002</v>
-      </c>
-      <c r="H19" s="26">
-        <v>37974.361757780003</v>
-      </c>
-      <c r="I19" s="25">
-        <v>0.17052851723948428</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="28">
-        <v>2016</v>
-      </c>
-      <c r="D20" s="27" t="s">
+      <c r="E31" s="6">
+        <v>29091878.11045</v>
+      </c>
+      <c r="F31" s="36">
+        <v>32253468376.670002</v>
+      </c>
+      <c r="G31" s="6">
+        <v>50292101.016480014</v>
+      </c>
+      <c r="H31" s="6">
+        <v>82033813343.600006</v>
+      </c>
+      <c r="I31" s="32">
+        <v>0.39317285229172277</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" s="35">
+        <v>2014</v>
+      </c>
+      <c r="D32" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="26">
-        <v>3592.2903015700003</v>
-      </c>
-      <c r="F20" s="26">
-        <v>10068.00190524</v>
-      </c>
-      <c r="G20" s="26">
-        <v>18671.610170470001</v>
-      </c>
-      <c r="H20" s="26">
-        <v>56645.971928250001</v>
-      </c>
-      <c r="I20" s="25">
-        <v>0.17773553109817808</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="28">
-        <v>2016</v>
-      </c>
-      <c r="D21" s="27" t="s">
+      <c r="E32" s="6">
+        <v>2934552.7919299966</v>
+      </c>
+      <c r="F32" s="36">
+        <v>35188021168.599998</v>
+      </c>
+      <c r="G32" s="6">
+        <v>31315444.385509994</v>
+      </c>
+      <c r="H32" s="6">
+        <v>113349257729.11</v>
+      </c>
+      <c r="I32" s="32">
+        <v>0.31043892014445124</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" s="35">
+        <v>2014</v>
+      </c>
+      <c r="D33" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="E21" s="26">
-        <v>2763.73079327</v>
-      </c>
-      <c r="F21" s="26">
-        <v>12831.732698510001</v>
-      </c>
-      <c r="G21" s="26">
-        <v>16282.293299979996</v>
-      </c>
-      <c r="H21" s="26">
-        <v>72928.265228229997</v>
-      </c>
-      <c r="I21" s="25">
-        <v>0.17595006076660288</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" s="28">
-        <v>2016</v>
-      </c>
-      <c r="D22" s="27" t="s">
+      <c r="E33" s="6">
+        <v>11667246.956919998</v>
+      </c>
+      <c r="F33" s="36">
+        <v>46855268125.519997</v>
+      </c>
+      <c r="G33" s="6">
+        <v>35795981.899360001</v>
+      </c>
+      <c r="H33" s="6">
+        <v>149145239628.47</v>
+      </c>
+      <c r="I33" s="32">
+        <v>0.31415865663724407</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" s="35">
+        <v>2014</v>
+      </c>
+      <c r="D34" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="26">
-        <v>3544.7185131399997</v>
-      </c>
-      <c r="F22" s="26">
-        <v>16376.451211650001</v>
-      </c>
-      <c r="G22" s="26">
-        <v>18802.734832239988</v>
-      </c>
-      <c r="H22" s="26">
-        <v>91731.000060469989</v>
-      </c>
-      <c r="I22" s="25">
-        <v>0.17852690149300107</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" s="28">
-        <v>2016</v>
-      </c>
-      <c r="D23" s="27" t="s">
+      <c r="E34" s="6">
+        <v>27973507.246120002</v>
+      </c>
+      <c r="F34" s="36">
+        <v>74828775371.639999</v>
+      </c>
+      <c r="G34" s="6">
+        <v>34676959.2315</v>
+      </c>
+      <c r="H34" s="6">
+        <v>183822198859.97</v>
+      </c>
+      <c r="I34" s="32">
+        <v>0.40707148448725838</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" s="35">
+        <v>2014</v>
+      </c>
+      <c r="D35" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="E23" s="26">
-        <v>2495.2227823600001</v>
-      </c>
-      <c r="F23" s="26">
-        <v>18871.673994010001</v>
-      </c>
-      <c r="G23" s="26">
-        <v>17463.058880970017</v>
-      </c>
-      <c r="H23" s="26">
-        <v>109194.05894144</v>
-      </c>
-      <c r="I23" s="25">
-        <v>0.17282693011833863</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" s="28">
-        <v>2016</v>
-      </c>
-      <c r="D24" s="27" t="s">
+      <c r="E35" s="6">
+        <v>951499.18469000247</v>
+      </c>
+      <c r="F35" s="36">
+        <v>75780274556.330002</v>
+      </c>
+      <c r="G35" s="6">
+        <v>34728739.343050018</v>
+      </c>
+      <c r="H35" s="6">
+        <v>218550938203.02002</v>
+      </c>
+      <c r="I35" s="32">
+        <v>0.34673964421939435</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36" s="35">
+        <v>2014</v>
+      </c>
+      <c r="D36" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="E24" s="26">
-        <v>2469.0415990400002</v>
-      </c>
-      <c r="F24" s="26">
-        <v>21340.715593050001</v>
-      </c>
-      <c r="G24" s="26">
-        <v>17031.406418160004</v>
-      </c>
-      <c r="H24" s="26">
-        <v>126225.4653596</v>
-      </c>
-      <c r="I24" s="25">
-        <v>0.16906822670253635</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" s="28">
-        <v>2016</v>
-      </c>
-      <c r="D25" s="27" t="s">
+      <c r="E36" s="6">
+        <v>3138400.279699997</v>
+      </c>
+      <c r="F36" s="36">
+        <v>78918674836.029999</v>
+      </c>
+      <c r="G36" s="6">
+        <v>33766820.550709993</v>
+      </c>
+      <c r="H36" s="6">
+        <v>252317758753.73001</v>
+      </c>
+      <c r="I36" s="32">
+        <v>0.3127749518140619</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B37" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" s="35">
+        <v>2014</v>
+      </c>
+      <c r="D37" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="26">
-        <v>3937.1570300100002</v>
-      </c>
-      <c r="F25" s="26">
-        <v>25277.87262306</v>
-      </c>
-      <c r="G25" s="26">
-        <v>16747.057195939971</v>
-      </c>
-      <c r="H25" s="26">
-        <v>142972.52255553997</v>
-      </c>
-      <c r="I25" s="25">
-        <v>0.17680231257891113</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="C26" s="28">
-        <v>2016</v>
-      </c>
-      <c r="D26" s="27" t="s">
+      <c r="E37" s="6">
+        <v>34180089.948040009</v>
+      </c>
+      <c r="F37" s="36">
+        <v>113098764784.07001</v>
+      </c>
+      <c r="G37" s="6">
+        <v>31424973.521579988</v>
+      </c>
+      <c r="H37" s="6">
+        <v>283742732275.31</v>
+      </c>
+      <c r="I37" s="32">
+        <v>0.39859616448019713</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B38" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38" s="35">
+        <v>2014</v>
+      </c>
+      <c r="D38" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="25"/>
-    </row>
-    <row r="27" spans="2:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27" s="28">
-        <v>2016</v>
-      </c>
-      <c r="D27" s="27" t="s">
+      <c r="E38" s="6">
+        <v>3001242.1014499972</v>
+      </c>
+      <c r="F38" s="36">
+        <v>116100006885.52</v>
+      </c>
+      <c r="G38" s="6">
+        <v>26350395.186179992</v>
+      </c>
+      <c r="H38" s="6">
+        <v>310093127461.48999</v>
+      </c>
+      <c r="I38" s="32">
+        <v>0.37440367619865517</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B39" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39" s="35">
+        <v>2014</v>
+      </c>
+      <c r="D39" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="25"/>
-    </row>
-    <row r="28" spans="2:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="C28" s="28">
-        <v>2016</v>
-      </c>
-      <c r="D28" s="27" t="s">
+      <c r="E39" s="6">
+        <v>3158927.4726900025</v>
+      </c>
+      <c r="F39" s="36">
+        <v>119258934358.21001</v>
+      </c>
+      <c r="G39" s="6">
+        <v>29871089.378270019</v>
+      </c>
+      <c r="H39" s="6">
+        <v>339964216839.76001</v>
+      </c>
+      <c r="I39" s="32">
+        <v>0.35079849128481061</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B40" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40" s="35">
+        <v>2014</v>
+      </c>
+      <c r="D40" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="25"/>
-    </row>
-    <row r="29" spans="2:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="C29" s="28">
-        <v>2016</v>
-      </c>
-      <c r="D29" s="27" t="s">
+      <c r="E40" s="6">
+        <v>31070677.23708</v>
+      </c>
+      <c r="F40" s="36">
+        <v>150329611595.29001</v>
+      </c>
+      <c r="G40" s="6">
+        <v>23740032.803369995</v>
+      </c>
+      <c r="H40" s="6">
+        <v>363704249643.13</v>
+      </c>
+      <c r="I40" s="32">
+        <v>0.41332926888480082</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" s="35">
+        <v>2014</v>
+      </c>
+      <c r="D41" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="25"/>
+      <c r="E41" s="6">
+        <v>8435173.852140015</v>
+      </c>
+      <c r="F41" s="36">
+        <v>158764785447.43002</v>
+      </c>
+      <c r="G41" s="6">
+        <v>14627478.124780029</v>
+      </c>
+      <c r="H41" s="6">
+        <v>378331727767.91003</v>
+      </c>
+      <c r="I41" s="32">
+        <v>0.41964438558752143</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B42" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" s="37">
+        <v>2013</v>
+      </c>
+      <c r="D42" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" s="6">
+        <v>1329790.4622799999</v>
+      </c>
+      <c r="F42" s="38">
+        <v>1329790462.28</v>
+      </c>
+      <c r="G42" s="6">
+        <v>26398123.83055</v>
+      </c>
+      <c r="H42" s="6">
+        <v>26398123830.549999</v>
+      </c>
+      <c r="I42" s="32">
+        <v>5.0374430804853682E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B43" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" s="37">
+        <v>2013</v>
+      </c>
+      <c r="D43" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E43" s="6">
+        <v>25928314.317240003</v>
+      </c>
+      <c r="F43" s="38">
+        <v>27258104779.52</v>
+      </c>
+      <c r="G43" s="6">
+        <v>18913694.757280003</v>
+      </c>
+      <c r="H43" s="6">
+        <v>45311818587.830002</v>
+      </c>
+      <c r="I43" s="32">
+        <v>0.60156722084955272</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B44" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44" s="37">
+        <v>2013</v>
+      </c>
+      <c r="D44" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E44" s="6">
+        <v>1918207.8532000007</v>
+      </c>
+      <c r="F44" s="38">
+        <v>29176312632.720001</v>
+      </c>
+      <c r="G44" s="6">
+        <v>37417140.632859997</v>
+      </c>
+      <c r="H44" s="6">
+        <v>82728959220.690002</v>
+      </c>
+      <c r="I44" s="32">
+        <v>0.35267351248658263</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B45" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" s="37">
+        <v>2013</v>
+      </c>
+      <c r="D45" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="E45" s="6">
+        <v>17569321.896470003</v>
+      </c>
+      <c r="F45" s="38">
+        <v>46745634529.190002</v>
+      </c>
+      <c r="G45" s="6">
+        <v>25751293.598410003</v>
+      </c>
+      <c r="H45" s="6">
+        <v>108480252819.10001</v>
+      </c>
+      <c r="I45" s="32">
+        <v>0.43091376830714345</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B46" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46" s="37">
+        <v>2013</v>
+      </c>
+      <c r="D46" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E46" s="6">
+        <v>31873161.867960006</v>
+      </c>
+      <c r="F46" s="38">
+        <v>78618796397.150009</v>
+      </c>
+      <c r="G46" s="6">
+        <v>26532025.536029998</v>
+      </c>
+      <c r="H46" s="6">
+        <v>135012278355.13</v>
+      </c>
+      <c r="I46" s="32">
+        <v>0.58230849338276325</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B47" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C47" s="37">
+        <v>2013</v>
+      </c>
+      <c r="D47" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E47" s="6">
+        <v>4647744.0809400026</v>
+      </c>
+      <c r="F47" s="38">
+        <v>83266540478.090012</v>
+      </c>
+      <c r="G47" s="6">
+        <v>27516294.924700011</v>
+      </c>
+      <c r="H47" s="6">
+        <v>162528573279.83002</v>
+      </c>
+      <c r="I47" s="32">
+        <v>0.51231939589310038</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B48" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C48" s="37">
+        <v>2013</v>
+      </c>
+      <c r="D48" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E48" s="6">
+        <v>4975497.2294799956</v>
+      </c>
+      <c r="F48" s="38">
+        <v>88242037707.570007</v>
+      </c>
+      <c r="G48" s="6">
+        <v>32109320.559720002</v>
+      </c>
+      <c r="H48" s="6">
+        <v>194637893839.55002</v>
+      </c>
+      <c r="I48" s="32">
+        <v>0.45336514882509177</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B49" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C49" s="37">
+        <v>2013</v>
+      </c>
+      <c r="D49" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E49" s="6">
+        <v>27128152.49801999</v>
+      </c>
+      <c r="F49" s="38">
+        <v>115370190205.59</v>
+      </c>
+      <c r="G49" s="6">
+        <v>30120465.763130005</v>
+      </c>
+      <c r="H49" s="6">
+        <v>224758359602.68002</v>
+      </c>
+      <c r="I49" s="32">
+        <v>0.5133076714456245</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B50" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C50" s="37">
+        <v>2013</v>
+      </c>
+      <c r="D50" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="E50" s="6">
+        <v>2112464.4250800018</v>
+      </c>
+      <c r="F50" s="38">
+        <v>117482654630.67</v>
+      </c>
+      <c r="G50" s="6">
+        <v>29650998.616559997</v>
+      </c>
+      <c r="H50" s="6">
+        <v>254409358219.24002</v>
+      </c>
+      <c r="I50" s="32">
+        <v>0.46178590069563419</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B51" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C51" s="37">
+        <v>2013</v>
+      </c>
+      <c r="D51" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="E51" s="6">
+        <v>2047674.963649994</v>
+      </c>
+      <c r="F51" s="38">
+        <v>119530329594.31999</v>
+      </c>
+      <c r="G51" s="6">
+        <v>29826471.027149994</v>
+      </c>
+      <c r="H51" s="6">
+        <v>284235829246.39001</v>
+      </c>
+      <c r="I51" s="32">
+        <v>0.4205322387090934</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B52" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C52" s="37">
+        <v>2013</v>
+      </c>
+      <c r="D52" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E52" s="6">
+        <v>60679553.796849988</v>
+      </c>
+      <c r="F52" s="38">
+        <v>180209883391.16998</v>
+      </c>
+      <c r="G52" s="6">
+        <v>28849611.131419983</v>
+      </c>
+      <c r="H52" s="6">
+        <v>313085440377.81</v>
+      </c>
+      <c r="I52" s="32">
+        <v>0.57559330505342277</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B53" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C53" s="37">
+        <v>2013</v>
+      </c>
+      <c r="D53" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E53" s="6">
+        <v>2982970.493399994</v>
+      </c>
+      <c r="F53" s="38">
+        <v>183192853884.56998</v>
+      </c>
+      <c r="G53" s="6">
+        <v>27663699.93577002</v>
+      </c>
+      <c r="H53" s="6">
+        <v>340749140313.58002</v>
+      </c>
+      <c r="I53" s="32">
+        <v>0.5376179488405568</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B54" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C54" s="39">
+        <v>2012</v>
+      </c>
+      <c r="D54" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E54" s="6"/>
+      <c r="F54" s="39"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="32"/>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B55" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C55" s="39">
+        <v>2012</v>
+      </c>
+      <c r="D55" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E55" s="6"/>
+      <c r="F55" s="39"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="32"/>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B56" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C56" s="39">
+        <v>2012</v>
+      </c>
+      <c r="D56" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E56" s="6"/>
+      <c r="F56" s="39"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="32"/>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B57" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C57" s="39">
+        <v>2012</v>
+      </c>
+      <c r="D57" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="E57" s="6"/>
+      <c r="F57" s="39"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="32"/>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B58" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C58" s="39">
+        <v>2012</v>
+      </c>
+      <c r="D58" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E58" s="6"/>
+      <c r="F58" s="39"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6"/>
+      <c r="I58" s="32"/>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B59" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C59" s="39">
+        <v>2012</v>
+      </c>
+      <c r="D59" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E59" s="6"/>
+      <c r="F59" s="39"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6"/>
+      <c r="I59" s="32"/>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B60" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C60" s="39">
+        <v>2012</v>
+      </c>
+      <c r="D60" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E60" s="6"/>
+      <c r="F60" s="39"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="6"/>
+      <c r="I60" s="32"/>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B61" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C61" s="39">
+        <v>2012</v>
+      </c>
+      <c r="D61" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E61" s="6"/>
+      <c r="F61" s="39"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6"/>
+      <c r="I61" s="32"/>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B62" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C62" s="39">
+        <v>2012</v>
+      </c>
+      <c r="D62" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="E62" s="6"/>
+      <c r="F62" s="39"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
+      <c r="I62" s="32"/>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B63" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C63" s="39">
+        <v>2012</v>
+      </c>
+      <c r="D63" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="E63" s="6">
+        <v>1002263.75046</v>
+      </c>
+      <c r="F63" s="40">
+        <v>1002263750.46</v>
+      </c>
+      <c r="G63" s="6">
+        <v>25046990.422810003</v>
+      </c>
+      <c r="H63" s="6">
+        <v>25046990422.810001</v>
+      </c>
+      <c r="I63" s="32">
+        <v>4.0015336515130784E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B64" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C64" s="39">
+        <v>2012</v>
+      </c>
+      <c r="D64" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E64" s="6">
+        <v>2754855.7725999998</v>
+      </c>
+      <c r="F64" s="40">
+        <v>3757119523.0599999</v>
+      </c>
+      <c r="G64" s="6">
+        <v>28566786.742759999</v>
+      </c>
+      <c r="H64" s="6">
+        <v>53613777165.57</v>
+      </c>
+      <c r="I64" s="32">
+        <v>7.0077501002349982E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B65" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C65" s="39">
+        <v>2012</v>
+      </c>
+      <c r="D65" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E65" s="6">
+        <v>6995400.8471100004</v>
+      </c>
+      <c r="F65" s="40">
+        <v>10752520370.17</v>
+      </c>
+      <c r="G65" s="6">
+        <v>30745751.470659997</v>
+      </c>
+      <c r="H65" s="6">
+        <v>84359528636.229996</v>
+      </c>
+      <c r="I65" s="32">
+        <v>0.12746065019562119</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
